--- a/downloaded_files/EPES304_Lecture-35387.xlsx
+++ b/downloaded_files/EPES304_Lecture-35387.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -103,6 +103,15 @@
   </x:si>
   <x:si>
     <x:t>Gloria Ayman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250171</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حبيبه حسن محمود حسن فرغلى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Habiba Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1220239</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -708,7 +717,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.410625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.640625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1045,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45924.612878044</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1077,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4197134607</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1109,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45907.4197134607</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1141,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1173,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4164266204</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1205,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45907.4164266204</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1237,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1269,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1301,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1333,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1365,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1397,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1429,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.664855787</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4199407755</x:v>
+        <x:v>45906.664855787</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45907.4199407755</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES304_Lecture-35387.xlsx
+++ b/downloaded_files/EPES304_Lecture-35387.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عبدالنبي عبدالوهاب محمد محجوب الشيخ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ahmed abdelnaby abdelwahab mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1220032</x:t>
@@ -407,7 +398,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -707,7 +698,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -715,7 +706,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="35.410625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="26.640625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.640625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -798,7 +789,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45906.6784016204</x:v>
+        <x:v>45906.6648658565</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -830,7 +821,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.6648658565</x:v>
+        <x:v>45906.6646690972</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -862,7 +853,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.6646690972</x:v>
+        <x:v>45906.6647458333</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -894,7 +885,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6647458333</x:v>
+        <x:v>45906.6647305556</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -926,7 +917,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6647305556</x:v>
+        <x:v>45906.664603044</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -958,7 +949,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.664603044</x:v>
+        <x:v>45906.6653541667</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -990,7 +981,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6653541667</x:v>
+        <x:v>45907.4190853819</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1022,7 +1013,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4190853819</x:v>
+        <x:v>45924.612878044</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1054,7 +1045,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45924.612878044</x:v>
+        <x:v>45906.6647248495</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1086,7 +1077,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6647248495</x:v>
+        <x:v>45907.4197134607</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1118,7 +1109,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4197134607</x:v>
+        <x:v>45907.4188826389</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1150,7 +1141,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4188826389</x:v>
+        <x:v>45906.66740625</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1182,7 +1173,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.66740625</x:v>
+        <x:v>45907.4164266204</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1214,7 +1205,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4164266204</x:v>
+        <x:v>45907.4145021991</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1246,7 +1237,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4145021991</x:v>
+        <x:v>45907.4148217593</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1278,7 +1269,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4148217593</x:v>
+        <x:v>45906.6645735301</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1310,7 +1301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6645735301</x:v>
+        <x:v>45906.6647540857</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1342,7 +1333,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6647540857</x:v>
+        <x:v>45907.4146651968</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1374,7 +1365,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4146651968</x:v>
+        <x:v>45906.6852452546</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6852452546</x:v>
+        <x:v>45906.6649337616</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6649337616</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1470,7 +1461,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1502,7 +1493,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1534,7 +1525,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1566,7 +1557,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1598,7 +1589,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.664855787</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1630,7 +1621,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.664855787</x:v>
+        <x:v>45907.4199407755</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1662,7 +1653,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.4199407755</x:v>
+        <x:v>45906.6649261921</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1679,38 +1670,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45906.6649261921</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES304_Lecture-35387.xlsx
+++ b/downloaded_files/EPES304_Lecture-35387.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud mostafa mohamed aly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1170117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مصطفى مرسى عبد المتجلى محمد مرسى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mostafa Morsy Abdel Motagally</x:t>
   </x:si>
   <x:si>
     <x:t>1220104</x:t>
@@ -398,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -698,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -706,7 +715,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.640625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.280625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="44.640625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -1429,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4222440162</x:v>
+        <x:v>45937.3412021991</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1461,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4185952894</x:v>
+        <x:v>45907.4222440162</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1493,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6647323727</x:v>
+        <x:v>45906.4185952894</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1525,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6649359143</x:v>
+        <x:v>45906.6647323727</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1557,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.711025</x:v>
+        <x:v>45906.6649359143</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1589,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.664855787</x:v>
+        <x:v>45906.711025</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1621,7 +1630,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4199407755</x:v>
+        <x:v>45906.664855787</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1653,7 +1662,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.6649261921</x:v>
+        <x:v>45907.4199407755</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1670,6 +1679,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.6649261921</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
